--- a/ЕСіМ2/Таблицы.xlsx
+++ b/ЕСіМ2/Таблицы.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Табл-2" sheetId="2" r:id="rId3"/>
     <sheet name="Табл-3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullPrecision="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Найменування вузла</t>
   </si>
@@ -204,14 +204,112 @@
     <t>Таблиця 1.1 – Відомості про вузли навантаження</t>
   </si>
   <si>
-    <t>=</t>
+    <r>
+      <t>Назва</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ПС</t>
+    </r>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <r>
+      <t>МВт</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>мм</t>
+    </r>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ТЦН</t>
+  </si>
+  <si>
+    <t>Таблиця 1.2 – Розрахунок місця розташування ВП</t>
+  </si>
+  <si>
+    <t>Натуральні показники</t>
+  </si>
+  <si>
+    <t>I група</t>
+  </si>
+  <si>
+    <t>II група</t>
+  </si>
+  <si>
+    <t>Варіант а)</t>
+  </si>
+  <si>
+    <t>Варіант б)</t>
+  </si>
+  <si>
+    <t>Варіант</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> км</t>
+  </si>
+  <si>
+    <t>Таблиця 1.3 – Порівняння варіантів за натуральними показниками</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,16 +357,50 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -559,11 +691,465 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,15 +1181,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,15 +1190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,12 +1197,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,8 +1223,185 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,14 +1424,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>6569</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>183932</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="247650" cy="190500"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4097" name="Object 1" hidden="1">
@@ -726,20 +1470,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="266700" cy="190500"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4098" name="Object 2" hidden="1">
@@ -773,20 +1522,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="991914" cy="180975"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4099" name="Object 3" hidden="1">
@@ -820,20 +1574,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1134789" cy="200025"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4100" name="Object 4" hidden="1">
@@ -867,20 +1626,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>600075</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="945603" cy="219075"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4101" name="Object 5" hidden="1">
@@ -914,20 +1678,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="763314" cy="200025"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4102" name="Object 6" hidden="1">
@@ -961,20 +1730,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="944289" cy="190500"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4103" name="Object 7" hidden="1">
@@ -1008,20 +1782,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="953814" cy="190500"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4104" name="Object 8" hidden="1">
@@ -1055,7 +1834,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1163,14 +1942,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>581025</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="774153" cy="542925"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4107" name="Object 11" hidden="1">
@@ -1204,7 +1988,1208 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>17808</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15322</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>366346</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>26123</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>16565</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>16565</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>36548</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>12679</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>2804</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>46864</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>41731</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>19335</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>8633</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>66730</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>233505</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5124" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5124"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>12161</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>11149</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>589848</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>11976</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5125" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>29309</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>7329</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>439616</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>47216</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5126" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5126"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>16565</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>8282</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>66171</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>8283</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>7327</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>14653</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>28212</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>69765</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5128" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>444012</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>452581</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>156414</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>390840</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5129" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>539547</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>432896</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>96650</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>108632</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5130" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5130"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>543435</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>182791</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>329712</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>52578</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5131" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5131"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5151" name="Object 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5151"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5150" name="Object 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5150"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5149" name="Object 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5149"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5148" name="Object 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5148"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5147" name="Object 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5147"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5146" name="Object 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5146"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5145" name="Object 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>466725</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5144" name="Object 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5144"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5154" name="Object 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5154"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5153" name="Object 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5153"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5152" name="Object 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5152"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>14655</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>388326</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>205154</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>80869</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5156" name="Object 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5156"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1476,87 +3461,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2">
-        <f>SUM('Табл-1'!D10,'Табл-1'!D10,'Табл-1'!F10,'Табл-1'!H10,'Табл-1'!J10,'Табл-1'!L10,'Табл-1'!N10)</f>
-        <v>181</v>
+        <f>SUM('Табл-1'!D10,'Табл-1'!F10,'Табл-1'!H10,'Табл-1'!J10,'Табл-1'!L10,'Табл-1'!N10)</f>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3">
-        <f>12+13+19+15.5+13.8+17</f>
+        <f>SUM('Табл-1'!E10,'Табл-1'!G10,'Табл-1'!I10,'Табл-1'!K10,'Табл-1'!M10,'Табл-1'!O10)</f>
         <v>90.3</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <f>SQRT(165^2+90.3^2)</f>
-        <v>188.09330131612873</v>
+      <c r="E6">
+        <f>ROUND(D6,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>0.05*D6</f>
-        <v>9.4046650658064372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>0.15*D6</f>
-        <v>28.213995197419308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>0.95*D2+D8</f>
-        <v>181.35466506580642</v>
+        <v>156.75</v>
       </c>
       <c r="E10">
         <f>ROUND(D10,2)</f>
-        <v>181.35</v>
+        <v>156.75</v>
       </c>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>0.98*D3+D9</f>
-        <v>116.70799519741931</v>
+        <v>88.494</v>
       </c>
       <c r="E12">
         <f>ROUND(D12,2)</f>
-        <v>116.71</v>
+        <v>88.49</v>
       </c>
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>COMPLEX(E10,E12,"j")</f>
-        <v>181.35+116.71j</v>
+        <v>156.75+88.49j</v>
       </c>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16">
-        <f>(16*100+20*95+35*50+32*140+27*75+35*135)/165</f>
-        <v>99.878787878787875</v>
+        <f>('Табл-1'!D10*'Табл-1'!C5+Розрахунок!F10*95+35*50+32*140+27*75+35*135)/165</f>
+        <v>88.363636363636402</v>
       </c>
       <c r="E16">
         <f>ROUND(D16,2)</f>
-        <v>99.88</v>
+        <v>88.36</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>(16*240+20*125+35*260+32*260+27*265+35*195)/165</f>
-        <v>228.72727272727272</v>
+        <v>228.727272727273</v>
       </c>
       <c r="E19">
         <f>ROUND(D19,2)</f>
@@ -1566,7 +3546,7 @@
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>(16*7+20*51+35*30+32*23+27*18+35*28)/165</f>
-        <v>26.56969696969697</v>
+        <v>26.569696969696999</v>
       </c>
     </row>
   </sheetData>
@@ -1855,11 +3835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,64 +3850,71 @@
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="17" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="13"/>
+      <c r="V3">
+        <f>SUM(H10,D10,F10,J10,L10,N10)</f>
+        <v>165</v>
+      </c>
     </row>
-    <row r="4" spans="2:16" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -1972,200 +3959,231 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+    <row r="5" spans="2:23" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
         <v>13</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="15">
         <v>100</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="15">
         <v>240</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="15">
         <v>95</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="15">
         <v>125</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="15">
         <v>50</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="15">
         <v>260</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="15">
         <v>140</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>260</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="15">
         <v>75</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <v>265</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="15">
         <v>130</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="15">
         <v>195</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="15">
         <v>20</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="16">
         <v>90</v>
       </c>
+      <c r="V5">
+        <f>SUM(E10,G10,I10,K10,M10,O10)</f>
+        <v>90.3</v>
+      </c>
     </row>
-    <row r="6" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:16" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:23" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="13"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="V7">
+        <f>SQRT(V3^2+V5^2)</f>
+        <v>188.09330131612899</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="31"/>
+      <c r="L8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14" t="s">
+      <c r="M8" s="31"/>
+      <c r="N8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="22" t="s">
         <v>12</v>
       </c>
+      <c r="V9">
+        <f>0.05*V7</f>
+        <v>9.4046650658064497</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+    <row r="10" spans="2:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
         <v>13</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="15">
         <v>7100</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="15">
         <v>16</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="15">
         <v>12</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>20</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>13</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>35</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <v>19</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <v>32</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="15">
         <v>15.5</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="15">
         <v>27</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="15">
         <v>13.8</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="15">
         <v>35</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <f>0.15*V7</f>
+        <v>28.213995197419301</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V14">
+        <f>0.95*V3+V9</f>
+        <v>166.154665065806</v>
+      </c>
+      <c r="W14">
+        <f>ROUND(V14,2)</f>
+        <v>166.15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="2:16" ht="51" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2181,8 +4199,16 @@
       <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="V16">
+        <f>0.98*V5+V11</f>
+        <v>116.707995197419</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ref="W15:W16" si="0">ROUND(V16,2)</f>
+        <v>116.71</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2190,17 +4216,17 @@
         <f>COMPLEX(D10,E10,"i")</f>
         <v>16+12i</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="23">
         <v>6</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
@@ -2208,17 +4234,21 @@
         <f>COMPLEX(F10,G10,"i")</f>
         <v>20+13i</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="24">
         <v>10</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="V18" t="str">
+        <f>COMPLEX(W14,W16,"j")</f>
+        <v>166.15+116.71j</v>
+      </c>
     </row>
-    <row r="19" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2226,17 +4256,20 @@
         <f>COMPLEX(H10,I10,"i")</f>
         <v>35+19i</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="24">
         <v>10</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
@@ -2244,17 +4277,21 @@
         <f>COMPLEX(J10,K10,"i")</f>
         <v>32+15.5i</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="24">
         <v>10</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="V20">
+        <f>SUM(D10*C5,F10*E5,H10*G5,J10*I5,L10*K5,N10*M5)/V3</f>
+        <v>98.818181818181799</v>
+      </c>
     </row>
-    <row r="21" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2262,17 +4299,17 @@
         <f>COMPLEX(L10,M10,"i")</f>
         <v>27+13.8i</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="24">
         <v>6</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2289,9 +4326,435 @@
       <c r="F22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="V22">
+        <f>SUM(D10*D5,F10*F5,H10*H5,J10*J5,L10*L5,N10*N5)/V3</f>
+        <v>228.727272727273</v>
+      </c>
     </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="2:22" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26">
+        <f>I36/C36</f>
+        <v>52.851272727272701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="47"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="39">
+        <f>D10</f>
+        <v>16</v>
+      </c>
+      <c r="D29" s="39">
+        <f>C5</f>
+        <v>100</v>
+      </c>
+      <c r="E29" s="39">
+        <f>C29*D29</f>
+        <v>1600</v>
+      </c>
+      <c r="F29" s="39">
+        <f>D5</f>
+        <v>240</v>
+      </c>
+      <c r="G29" s="39">
+        <f>C29*F29</f>
+        <v>3840</v>
+      </c>
+      <c r="H29" s="55">
+        <f>SQRT((V20-D29)^2+(V22-F29)^2)</f>
+        <v>11.33451</v>
+      </c>
+      <c r="I29" s="40">
+        <f>C29*H29</f>
+        <v>181.35216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="42">
+        <f>F10</f>
+        <v>20</v>
+      </c>
+      <c r="D30" s="39">
+        <f>E5</f>
+        <v>95</v>
+      </c>
+      <c r="E30" s="39">
+        <f t="shared" ref="E30:E34" si="1">C30*D30</f>
+        <v>1900</v>
+      </c>
+      <c r="F30" s="39">
+        <f>F5</f>
+        <v>125</v>
+      </c>
+      <c r="G30" s="39">
+        <f t="shared" ref="G30:G34" si="2">C30*F30</f>
+        <v>2500</v>
+      </c>
+      <c r="H30" s="55">
+        <f>SQRT((V20-D30)^2+(V22-F30)^2)</f>
+        <v>103.79752000000001</v>
+      </c>
+      <c r="I30" s="40">
+        <f>C30*H30</f>
+        <v>2075.9504000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="42">
+        <f>H10</f>
+        <v>35</v>
+      </c>
+      <c r="D31" s="39">
+        <f>G5</f>
+        <v>50</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="1"/>
+        <v>1750</v>
+      </c>
+      <c r="F31" s="39">
+        <f>H5</f>
+        <v>260</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="2"/>
+        <v>9100</v>
+      </c>
+      <c r="H31" s="55">
+        <f>SQRT((V20-D31)^2+(V22-F31)^2)</f>
+        <v>57.975839999999998</v>
+      </c>
+      <c r="I31" s="40">
+        <f>C31*H31</f>
+        <v>2029.1543999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="42">
+        <f>J10</f>
+        <v>32</v>
+      </c>
+      <c r="D32" s="39">
+        <f>I5</f>
+        <v>140</v>
+      </c>
+      <c r="E32" s="39">
+        <f t="shared" si="1"/>
+        <v>4480</v>
+      </c>
+      <c r="F32" s="39">
+        <f>J5</f>
+        <v>260</v>
+      </c>
+      <c r="G32" s="39">
+        <f t="shared" si="2"/>
+        <v>8320</v>
+      </c>
+      <c r="H32" s="55">
+        <f>SQRT((V20-D32)^2+(V22-F32)^2)</f>
+        <v>51.710009999999997</v>
+      </c>
+      <c r="I32" s="40">
+        <f>C32*H32</f>
+        <v>1654.7203199999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="42">
+        <f>L10</f>
+        <v>27</v>
+      </c>
+      <c r="D33" s="39">
+        <f>K5</f>
+        <v>75</v>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="F33" s="39">
+        <f>L5</f>
+        <v>265</v>
+      </c>
+      <c r="G33" s="39">
+        <f t="shared" si="2"/>
+        <v>7155</v>
+      </c>
+      <c r="H33" s="55">
+        <f>SQRT((V20-D33)^2+(V22-F33)^2)</f>
+        <v>43.393740000000001</v>
+      </c>
+      <c r="I33" s="40">
+        <f>C33*H33</f>
+        <v>1171.6309799999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="42">
+        <f>N10</f>
+        <v>35</v>
+      </c>
+      <c r="D34" s="39">
+        <f>M5</f>
+        <v>130</v>
+      </c>
+      <c r="E34" s="39">
+        <f t="shared" si="1"/>
+        <v>4550</v>
+      </c>
+      <c r="F34" s="39">
+        <f>N5</f>
+        <v>195</v>
+      </c>
+      <c r="G34" s="39">
+        <f t="shared" si="2"/>
+        <v>6825</v>
+      </c>
+      <c r="H34" s="55">
+        <f>SQRT((V20-D34)^2+(V22-F34)^2)</f>
+        <v>45.932940000000002</v>
+      </c>
+      <c r="I34" s="40">
+        <f>C34*H34</f>
+        <v>1607.6529</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="39">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="56">
+        <f>SQRT((V20-D35)^2+(V22-F35)^2)</f>
+        <v>159.55000000000001</v>
+      </c>
+      <c r="I35" s="40">
+        <f>C35*H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="45">
+        <f>SUM(C29:C34)</f>
+        <v>165</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="45">
+        <f>SUM(E29:E34)</f>
+        <v>16305</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="45">
+        <f>SUM(G29:G34)</f>
+        <v>37740</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="57">
+        <f>SUM(I29:I34)</f>
+        <v>8720.4599999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+    </row>
+    <row r="48" spans="2:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="61"/>
+      <c r="H48" s="75"/>
+    </row>
+    <row r="49" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="82"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="85"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="67"/>
+    </row>
+    <row r="52" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="67"/>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
     <mergeCell ref="C2:P2"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="D8:E8"/>
@@ -2303,6 +4766,585 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5121" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5121" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5122" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5122" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5123" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5123" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5124" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5124" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5125" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5125" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5126" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5126" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5127" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5127" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5128" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5128" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5129" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>457200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5129" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5130" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>428625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5130" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5131" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5131" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5151" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5151" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5150" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5150" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5149" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId31">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5149" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5148" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5148" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5147" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId35">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5147" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5146" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId37">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5146" r:id="rId36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5145" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5145" r:id="rId38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5144" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5144" r:id="rId40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5154" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5154" r:id="rId42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5153" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5153" r:id="rId44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5152" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5152" r:id="rId46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="5156" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="5156" r:id="rId48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
